--- a/output/1Y_P6_1VAL-D.xlsx
+++ b/output/1Y_P6_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>9.661099999999999</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>1035.0788</v>
       </c>
-      <c r="G2" s="1">
-        <v>1035.0788</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.039000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.661099999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.039000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>10.7352</v>
       </c>
+      <c r="E3" s="1">
+        <v>1035.0788</v>
+      </c>
       <c r="F3" s="1">
         <v>931.515</v>
       </c>
-      <c r="G3" s="1">
-        <v>1966.5938</v>
-      </c>
       <c r="H3" s="1">
-        <v>21002.2389</v>
+        <v>11054.1243</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1699</v>
+        <v>11054.1243</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>9.661099999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21002.2389</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0528</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>10.2783</v>
       </c>
+      <c r="E4" s="1">
+        <v>1966.5938</v>
+      </c>
       <c r="F4" s="1">
         <v>972.9235</v>
       </c>
-      <c r="G4" s="1">
-        <v>2939.5174</v>
-      </c>
       <c r="H4" s="1">
-        <v>30056.5652</v>
+        <v>20108.422</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>10.2058</v>
+        <v>20108.422</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.1699</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30056.5652</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0305</v>
+        <v>-0.0449</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>9.807499999999999</v>
       </c>
+      <c r="E5" s="1">
+        <v>2939.5174</v>
+      </c>
       <c r="F5" s="1">
         <v>1019.6278</v>
       </c>
-      <c r="G5" s="1">
-        <v>3959.1452</v>
-      </c>
       <c r="H5" s="1">
-        <v>38627.7962</v>
+        <v>28679.6952</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.1032</v>
+        <v>28679.6952</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.2058</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>1322.7828</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8677.217199999999</v>
+        <v>884.9672</v>
       </c>
       <c r="O5" s="1">
-        <v>1322.7828</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39950.579</v>
+        <v>-9115.032800000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0026</v>
+        <v>-0.0475</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>10.4459</v>
       </c>
+      <c r="E6" s="1">
+        <v>3959.1452</v>
+      </c>
       <c r="F6" s="1">
-        <v>973.1424</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4932.2876</v>
+        <v>967.9032999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>51254.8528</v>
+        <v>41142.2493</v>
       </c>
       <c r="I6" s="1">
-        <v>50165.3479</v>
+        <v>884.9672</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1708</v>
+        <v>42027.2165</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40110.6209</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.1311</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1157.435</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>52412.2878</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0493</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>9.6988</v>
       </c>
+      <c r="E7" s="1">
+        <v>4927.0485</v>
+      </c>
       <c r="F7" s="1">
-        <v>1048.1037</v>
-      </c>
-      <c r="G7" s="1">
-        <v>5980.3912</v>
+        <v>1042.461</v>
       </c>
       <c r="H7" s="1">
-        <v>57701.2069</v>
+        <v>47538.1347</v>
       </c>
       <c r="I7" s="1">
-        <v>60330.6957</v>
+        <v>774.3463</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0881</v>
+        <v>48312.481</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50221.2418</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.193</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>992.0871</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58693.294</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0596</v>
+        <v>-0.07140000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>10.0658</v>
       </c>
+      <c r="E8" s="1">
+        <v>5969.5095</v>
+      </c>
       <c r="F8" s="1">
-        <v>1009.8897</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6990.281</v>
+        <v>1004.4528</v>
       </c>
       <c r="H8" s="1">
-        <v>69997.1784</v>
+        <v>59775.6835</v>
       </c>
       <c r="I8" s="1">
-        <v>70496.0436</v>
+        <v>663.7254</v>
       </c>
       <c r="J8" s="1">
-        <v>10.0849</v>
+        <v>60439.4089</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60331.8627</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.1067</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>826.7393</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>70823.9176</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.031</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>11.2848</v>
       </c>
+      <c r="E9" s="1">
+        <v>6973.9623</v>
+      </c>
       <c r="F9" s="1">
-        <v>900.8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7891.081</v>
+        <v>895.9503999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>88587.6422</v>
+        <v>78291.79300000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80661.39139999999</v>
+        <v>553.1045</v>
       </c>
       <c r="J9" s="1">
-        <v>10.2218</v>
+        <v>78844.89750000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70442.48360000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>10.1008</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>661.3914</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89249.0336</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1042</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>11.1341</v>
       </c>
+      <c r="E10" s="1">
+        <v>7869.9127</v>
+      </c>
       <c r="F10" s="1">
-        <v>912.9923</v>
-      </c>
-      <c r="G10" s="1">
-        <v>8804.0733</v>
+        <v>908.0771</v>
       </c>
       <c r="H10" s="1">
-        <v>97517.43730000001</v>
+        <v>87170.3009</v>
       </c>
       <c r="I10" s="1">
-        <v>90826.7393</v>
+        <v>442.4836</v>
       </c>
       <c r="J10" s="1">
-        <v>10.3164</v>
+        <v>87612.78449999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80553.1045</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.2356</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>496.0436</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>98013.4809</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0124</v>
+        <v>-0.0139</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>10.9064</v>
       </c>
+      <c r="E11" s="1">
+        <v>8777.989799999999</v>
+      </c>
       <c r="F11" s="1">
-        <v>932.0535</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9736.126700000001</v>
+        <v>927.0356</v>
       </c>
       <c r="H11" s="1">
-        <v>105635.0279</v>
+        <v>95239.4333</v>
       </c>
       <c r="I11" s="1">
-        <v>100992.0871</v>
+        <v>331.8627</v>
       </c>
       <c r="J11" s="1">
-        <v>10.3729</v>
+        <v>95571.296</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90663.7254</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.3285</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>330.6957</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>105965.7236</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.019</v>
+        <v>-0.0209</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>11.6267</v>
       </c>
+      <c r="E12" s="1">
+        <v>9705.025299999999</v>
+      </c>
       <c r="F12" s="1">
-        <v>874.3107</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10610.4374</v>
+        <v>869.6037</v>
       </c>
       <c r="H12" s="1">
-        <v>122723.5022</v>
+        <v>112251.2346</v>
       </c>
       <c r="I12" s="1">
-        <v>111157.435</v>
+        <v>221.2418</v>
       </c>
       <c r="J12" s="1">
-        <v>10.4762</v>
+        <v>112472.4764</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100774.3463</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>10.3837</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>165.3479</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>122888.8501</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0597</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>12.3095</v>
       </c>
+      <c r="E13" s="1">
+        <v>10574.629</v>
+      </c>
       <c r="F13" s="1">
-        <v>825.8132000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>11436.2506</v>
+        <v>821.3673</v>
       </c>
       <c r="H13" s="1">
-        <v>140043.7508</v>
+        <v>129492.6769</v>
       </c>
       <c r="I13" s="1">
-        <v>121322.7828</v>
+        <v>110.6209</v>
       </c>
       <c r="J13" s="1">
-        <v>10.6086</v>
+        <v>129603.2978</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110884.9672</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>10.4859</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10165.3479</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>140043.7508</v>
+        <v>-10110.6209</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0538</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.3876</v>
       </c>
+      <c r="E14" s="1">
+        <v>11395.9963</v>
+      </c>
       <c r="F14" s="1">
-        <v>-11436.2506</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-10574.629</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>151774.1581</v>
       </c>
       <c r="I14" s="1">
-        <v>121322.7828</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>10.6086</v>
+        <v>151774.1581</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110884.9672</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.7302</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>152310.2732</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>152310.2732</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>152310.2732</v>
+        <v>140835.024</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0151</v>
+        <v>0.0872</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1035.0788</v>
       </c>
       <c r="G2" s="1">
-        <v>1035.0788</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.039000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.661099999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.039000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>10.7352</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>1035.0788</v>
       </c>
       <c r="F3" s="1">
         <v>837.668</v>
       </c>
       <c r="G3" s="1">
-        <v>1872.7469</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>11054.1243</v>
       </c>
       <c r="I3" s="1">
-        <v>18992.5338</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1415</v>
+        <v>11054.1243</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>8992.533799999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.687799999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-8992.533799999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>1007.4662</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21007.4662</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0531</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>10.2783</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1872.7469</v>
       </c>
       <c r="F4" s="1">
         <v>1061.2385</v>
       </c>
       <c r="G4" s="1">
-        <v>2933.9853</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19148.8366</v>
       </c>
       <c r="I4" s="1">
-        <v>29900.2613</v>
+        <v>1007.4662</v>
       </c>
       <c r="J4" s="1">
-        <v>10.191</v>
+        <v>20156.3027</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19900.2613</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6262</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10907.7275</v>
       </c>
-      <c r="O4" s="1">
-        <v>99.73869999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30099.7387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0293</v>
+        <v>-0.0426</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2933.9853</v>
       </c>
       <c r="F5" s="1">
         <v>1029.7975</v>
       </c>
       <c r="G5" s="1">
-        <v>3963.7828</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38673.0433</v>
+        <v>28625.7213</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>99.73869999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0914</v>
+        <v>28725.46</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.225</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>1320.2934</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8779.445299999999</v>
+        <v>842.7361</v>
       </c>
       <c r="O5" s="1">
-        <v>1320.2934</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39993.3367</v>
+        <v>-9257.0026</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0027</v>
+        <v>-0.0474</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>10.4459</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>3963.7828</v>
       </c>
       <c r="F6" s="1">
         <v>847.7495</v>
       </c>
       <c r="G6" s="1">
-        <v>4811.5323</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41190.4417</v>
       </c>
       <c r="I6" s="1">
-        <v>48855.5063</v>
+        <v>842.7361</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1538</v>
+        <v>42033.1778</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38855.5063</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.8026</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8855.506299999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2464.7871</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52464.7871</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0494</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>9.6988</v>
       </c>
       <c r="E7" s="1">
+        <v>4811.5323</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1235.9498</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>1285.1886</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6096.7209</v>
-      </c>
       <c r="H7" s="1">
-        <v>58823.6017</v>
+        <v>46423.5881</v>
       </c>
       <c r="I7" s="1">
-        <v>61320.2934</v>
+        <v>1987.2298</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0579</v>
+        <v>48410.8179</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50842.7361</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.5668</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-12464.7871</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58823.6017</v>
+        <v>-11987.2298</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0583</v>
+        <v>-0.0696</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>10.0658</v>
       </c>
       <c r="E8" s="1">
+        <v>6047.4821</v>
+      </c>
+      <c r="F8" s="1">
+        <v>943.0807</v>
+      </c>
+      <c r="G8" s="1">
         <v>70000</v>
       </c>
-      <c r="F8" s="1">
-        <v>893.8419</v>
-      </c>
-      <c r="G8" s="1">
-        <v>6990.5627</v>
-      </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60556.4617</v>
       </c>
       <c r="I8" s="1">
-        <v>70317.5269</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.0589</v>
+        <v>60556.4617</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60335.5975</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>9.977</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-8997.2335</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1002.7665</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71002.7665</v>
+        <v>-9492.8614</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0317</v>
+        <v>0.0367</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>11.2848</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>6990.5627</v>
       </c>
       <c r="F9" s="1">
         <v>135.5607</v>
       </c>
       <c r="G9" s="1">
-        <v>7126.1235</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>78478.1545</v>
       </c>
       <c r="I9" s="1">
-        <v>71847.3027</v>
+        <v>507.1386</v>
       </c>
       <c r="J9" s="1">
-        <v>10.0822</v>
+        <v>78985.2931</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>61865.3733</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.8498</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-1529.7758</v>
       </c>
-      <c r="O9" s="1">
-        <v>9472.9907</v>
-      </c>
-      <c r="P9" s="1">
-        <v>89472.99069999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.1046</v>
+        <v>0.1195</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>11.1341</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>7126.1235</v>
       </c>
       <c r="F10" s="1">
         <v>999.2602000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>8125.3837</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78931.7941</v>
       </c>
       <c r="I10" s="1">
-        <v>82973.16590000001</v>
+        <v>8977.362800000001</v>
       </c>
       <c r="J10" s="1">
-        <v>10.2116</v>
+        <v>87909.1569</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72991.2365</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.2428</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11125.8632</v>
       </c>
-      <c r="O10" s="1">
-        <v>8347.127500000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98347.1275</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0113</v>
+        <v>-0.0121</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>10.9064</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>8125.3837</v>
       </c>
       <c r="F11" s="1">
         <v>1091.3761</v>
       </c>
       <c r="G11" s="1">
-        <v>9216.7598</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>88158.78810000001</v>
       </c>
       <c r="I11" s="1">
-        <v>94876.14969999999</v>
+        <v>7851.4995</v>
       </c>
       <c r="J11" s="1">
-        <v>10.2939</v>
+        <v>96010.2876</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>84894.22040000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.448</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11902.9838</v>
       </c>
-      <c r="O11" s="1">
-        <v>6444.1437</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106444.1437</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0176</v>
+        <v>-0.0194</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>11.6267</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>9216.7598</v>
       </c>
       <c r="F12" s="1">
         <v>293.6282</v>
       </c>
       <c r="G12" s="1">
-        <v>9510.3879</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>106603.8084</v>
       </c>
       <c r="I12" s="1">
-        <v>98290.0765</v>
+        <v>5948.5157</v>
       </c>
       <c r="J12" s="1">
-        <v>10.335</v>
+        <v>112552.3241</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>88308.1471</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.581300000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3413.9268</v>
       </c>
-      <c r="O12" s="1">
-        <v>13030.2169</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123030.2169</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0566</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>12.3095</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>9510.3879</v>
       </c>
       <c r="F13" s="1">
         <v>289.0502</v>
       </c>
       <c r="G13" s="1">
-        <v>9799.438200000001</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>116460.4065</v>
       </c>
       <c r="I13" s="1">
-        <v>101848.1403</v>
+        <v>12534.5889</v>
       </c>
       <c r="J13" s="1">
-        <v>10.3933</v>
+        <v>128994.9955</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>91866.21090000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.659599999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3558.0638</v>
       </c>
-      <c r="O13" s="1">
-        <v>19472.1531</v>
-      </c>
-      <c r="P13" s="1">
-        <v>139472.1531</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0484</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.3876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9799.438200000001</v>
       </c>
       <c r="F14" s="1">
         <v>-9799.438200000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>130510.8774</v>
       </c>
       <c r="I14" s="1">
-        <v>101848.1403</v>
+        <v>18976.5251</v>
       </c>
       <c r="J14" s="1">
-        <v>10.3933</v>
+        <v>149487.4025</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>91866.21090000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.374599999999999</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>130510.8774</v>
       </c>
-      <c r="O14" s="1">
-        <v>149983.0305</v>
-      </c>
-      <c r="P14" s="1">
-        <v>149983.0305</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0034</v>
+        <v>0.0755</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1035.0788</v>
       </c>
       <c r="G2" s="1">
-        <v>1035.0788</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.039000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.661099999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.039000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>10.7352</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>1035.0788</v>
       </c>
       <c r="F3" s="1">
         <v>842.3499</v>
       </c>
       <c r="G3" s="1">
-        <v>1877.4287</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>11054.1243</v>
       </c>
       <c r="I3" s="1">
-        <v>19042.7946</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.143</v>
+        <v>11054.1243</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9042.794599999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.7363</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9042.794599999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>957.2054000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21007.2054</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0531</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>10.2783</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1877.4287</v>
       </c>
       <c r="F4" s="1">
         <v>1071.251</v>
       </c>
       <c r="G4" s="1">
-        <v>2948.6797</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>19196.7086</v>
       </c>
       <c r="I4" s="1">
-        <v>30053.4336</v>
+        <v>957.2054000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1922</v>
+        <v>20153.914</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20053.4336</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6813</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-11010.639</v>
       </c>
-      <c r="O4" s="1">
-        <v>-53.4336</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30096.8164</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0294</v>
+        <v>-0.0428</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2948.6797</v>
       </c>
       <c r="F5" s="1">
         <v>1014.1796</v>
       </c>
       <c r="G5" s="1">
-        <v>3962.8593</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38664.033</v>
+        <v>28769.0884</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-53.4336</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0937</v>
+        <v>28715.6548</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.174</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>1326.9059</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8619.6605</v>
+        <v>844.8429</v>
       </c>
       <c r="O5" s="1">
-        <v>1326.9059</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39990.9389</v>
+        <v>-9101.723400000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0026</v>
+        <v>-0.0477</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>10.4459</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>3962.8593</v>
       </c>
       <c r="F6" s="1">
         <v>897.0295</v>
       </c>
       <c r="G6" s="1">
-        <v>4859.8888</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41180.845</v>
       </c>
       <c r="I6" s="1">
-        <v>49370.2803</v>
+        <v>844.8429</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1587</v>
+        <v>42025.6879</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39370.2803</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>9.934799999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9370.2803</v>
       </c>
-      <c r="O6" s="1">
-        <v>1956.6256</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52459.1318</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0494</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>9.6988</v>
       </c>
       <c r="E7" s="1">
+        <v>4859.8888</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1183.091</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>1232.7943</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6092.6831</v>
-      </c>
       <c r="H7" s="1">
-        <v>58784.6437</v>
+        <v>46890.1509</v>
       </c>
       <c r="I7" s="1">
-        <v>61326.9059</v>
+        <v>1474.5626</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0657</v>
+        <v>48364.7136</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50844.8429</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.4621</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11956.6256</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58784.6437</v>
+        <v>-11474.5626</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0588</v>
+        <v>-0.0704</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>10.0658</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>6042.9797</v>
       </c>
       <c r="F8" s="1">
         <v>993.463</v>
       </c>
       <c r="G8" s="1">
-        <v>7086.1461</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70957.12420000001</v>
+        <v>60511.3777</v>
       </c>
       <c r="I8" s="1">
-        <v>71326.9059</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.0657</v>
+        <v>60511.3777</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60844.8429</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0687</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70957.12420000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0316</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>11.2848</v>
       </c>
       <c r="E9" s="1">
+        <v>7036.4428</v>
+      </c>
+      <c r="F9" s="1">
+        <v>215.6428</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>165.9394</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7252.0855</v>
-      </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>78993.21739999999</v>
       </c>
       <c r="I9" s="1">
-        <v>73199.499</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.0936</v>
+        <v>78993.21739999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63278.3285</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>8.992900000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-1872.5931</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>8127.4069</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89541.4947</v>
+        <v>-2433.4856</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.106</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>11.1341</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>7252.0855</v>
       </c>
       <c r="F10" s="1">
         <v>1037.7161</v>
       </c>
       <c r="G10" s="1">
-        <v>8289.801600000001</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80327.00019999999</v>
       </c>
       <c r="I10" s="1">
-        <v>84753.5333</v>
+        <v>7566.5144</v>
       </c>
       <c r="J10" s="1">
-        <v>10.2238</v>
+        <v>87893.51459999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74832.3628</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.3187</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11554.0343</v>
       </c>
-      <c r="O10" s="1">
-        <v>6573.3726</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98394.5309</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0115</v>
+        <v>-0.0124</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>10.9064</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>8289.801600000001</v>
       </c>
       <c r="F11" s="1">
         <v>1137.1246</v>
       </c>
       <c r="G11" s="1">
-        <v>9426.9262</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>89942.6893</v>
       </c>
       <c r="I11" s="1">
-        <v>97155.4694</v>
+        <v>6012.4801</v>
       </c>
       <c r="J11" s="1">
-        <v>10.3062</v>
+        <v>95955.1694</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>87234.29889999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.5231</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12401.9361</v>
       </c>
-      <c r="O11" s="1">
-        <v>4171.4365</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106451.7006</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0179</v>
+        <v>-0.0198</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>11.6267</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>9426.9262</v>
       </c>
       <c r="F12" s="1">
         <v>324.8237</v>
       </c>
       <c r="G12" s="1">
-        <v>9751.749900000001</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>109034.6567</v>
       </c>
       <c r="I12" s="1">
-        <v>100932.0974</v>
+        <v>3610.544</v>
       </c>
       <c r="J12" s="1">
-        <v>10.3502</v>
+        <v>112645.2008</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>91010.92690000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.654400000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3776.628</v>
       </c>
-      <c r="O12" s="1">
-        <v>10394.8085</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123186.4739</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0578</v>
+        <v>0.0631</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>12.3095</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>9751.749900000001</v>
       </c>
       <c r="F13" s="1">
         <v>321.7151</v>
       </c>
       <c r="G13" s="1">
-        <v>10073.4651</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>119416.0291</v>
       </c>
       <c r="I13" s="1">
-        <v>104892.2496</v>
+        <v>9833.915999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>10.4127</v>
+        <v>129249.9451</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>94971.0791</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.738899999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-3960.1522</v>
       </c>
-      <c r="O13" s="1">
-        <v>16434.6563</v>
-      </c>
-      <c r="P13" s="1">
-        <v>139790.28</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0496</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.3876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10073.4651</v>
       </c>
       <c r="F14" s="1">
         <v>-10073.4651</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>134160.4224</v>
       </c>
       <c r="I14" s="1">
-        <v>104892.2496</v>
+        <v>15873.7638</v>
       </c>
       <c r="J14" s="1">
-        <v>10.4127</v>
+        <v>150034.1862</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>94971.0791</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.4278</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>134160.4224</v>
       </c>
-      <c r="O14" s="1">
-        <v>150595.0786</v>
-      </c>
-      <c r="P14" s="1">
-        <v>150595.0786</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0054</v>
+        <v>0.0774</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1035.0788</v>
       </c>
       <c r="G2" s="1">
-        <v>1035.0788</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.039000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.661099999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.039000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>10.7352</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>1035.0788</v>
       </c>
       <c r="F3" s="1">
         <v>847.0318</v>
       </c>
       <c r="G3" s="1">
-        <v>1882.1106</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>11054.1243</v>
       </c>
       <c r="I3" s="1">
-        <v>19093.0554</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.1445</v>
+        <v>11054.1243</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9093.055399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.7849</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9093.055399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>906.9446</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21006.9446</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0531</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>10.2783</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1882.1106</v>
       </c>
       <c r="F4" s="1">
         <v>1061.1623</v>
       </c>
       <c r="G4" s="1">
-        <v>2943.2729</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30094.9654</v>
+        <v>19244.5807</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>906.9446</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1927</v>
+        <v>20151.5253</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6264</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10906.9446</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30094.9654</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0294</v>
+        <v>-0.0429</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2943.2729</v>
       </c>
       <c r="F5" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G5" s="1">
-        <v>3962.9007</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38664.4373</v>
+        <v>28716.3364</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0936</v>
+        <v>28716.3364</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.1927</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>1324.4728</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8675.5272</v>
+        <v>846.9498</v>
       </c>
       <c r="O5" s="1">
-        <v>1324.4728</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39988.9101</v>
+        <v>-9153.0502</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0026</v>
+        <v>-0.0476</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>10.4459</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>3962.9007</v>
       </c>
       <c r="F6" s="1">
         <v>945.8293</v>
       </c>
       <c r="G6" s="1">
-        <v>4908.7301</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41181.2756</v>
       </c>
       <c r="I6" s="1">
-        <v>49880.0385</v>
+        <v>846.9498</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1615</v>
+        <v>42028.2253</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39880.0385</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.0633</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9880.038500000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>1444.4343</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52454.4844</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0493</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>9.6988</v>
       </c>
       <c r="E7" s="1">
+        <v>4908.7301</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1130.7493</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>1179.9846</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6088.7146</v>
-      </c>
       <c r="H7" s="1">
-        <v>58746.3541</v>
+        <v>47361.3911</v>
       </c>
       <c r="I7" s="1">
-        <v>61324.4728</v>
+        <v>966.9113</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0718</v>
+        <v>48328.3023</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50846.9498</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.3585</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11444.4343</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58746.3541</v>
+        <v>-10966.9113</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0594</v>
+        <v>-0.0711</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>10.0658</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>6039.4794</v>
       </c>
       <c r="F8" s="1">
         <v>993.463</v>
       </c>
       <c r="G8" s="1">
-        <v>7082.1776</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70917.3857</v>
+        <v>60476.3265</v>
       </c>
       <c r="I8" s="1">
-        <v>71324.4728</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.071</v>
+        <v>60476.3265</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60846.9498</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0749</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70917.3857</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0316</v>
+        <v>0.0368</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>11.2848</v>
       </c>
       <c r="E9" s="1">
+        <v>7032.9424</v>
+      </c>
+      <c r="F9" s="1">
+        <v>347.6466</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>298.4113</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7380.5889</v>
-      </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>78953.9209</v>
       </c>
       <c r="I9" s="1">
-        <v>74691.9847</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.1201</v>
+        <v>78953.9209</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64770.0719</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.2095</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-3367.5119</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>6632.4881</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89489.1937</v>
+        <v>-3923.1221</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1059</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>11.1341</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>7380.5889</v>
       </c>
       <c r="F10" s="1">
         <v>1077.5087</v>
       </c>
       <c r="G10" s="1">
-        <v>8458.097599999999</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>81750.3553</v>
       </c>
       <c r="I10" s="1">
-        <v>86689.07429999999</v>
+        <v>6076.8779</v>
       </c>
       <c r="J10" s="1">
-        <v>10.2492</v>
+        <v>87827.23330000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76767.1614</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.4012</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-11997.0896</v>
       </c>
-      <c r="O10" s="1">
-        <v>4635.3985</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98320.6712</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0117</v>
+        <v>-0.0127</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>10.9064</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>8458.097599999999</v>
       </c>
       <c r="F11" s="1">
         <v>1184.6723</v>
       </c>
       <c r="G11" s="1">
-        <v>9642.77</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>91768.6678</v>
       </c>
       <c r="I11" s="1">
-        <v>99609.58440000001</v>
+        <v>4079.7883</v>
       </c>
       <c r="J11" s="1">
-        <v>10.33</v>
+        <v>95848.4561</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89687.6716</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.6038</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-12920.5101</v>
       </c>
-      <c r="O11" s="1">
-        <v>1714.8884</v>
-      </c>
-      <c r="P11" s="1">
-        <v>106337.0138</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0183</v>
+        <v>-0.0202</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>11.6267</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>9642.77</v>
       </c>
       <c r="F12" s="1">
         <v>357.6923</v>
       </c>
       <c r="G12" s="1">
-        <v>10000.4623</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>111531.1701</v>
       </c>
       <c r="I12" s="1">
-        <v>103768.3656</v>
+        <v>1159.2782</v>
       </c>
       <c r="J12" s="1">
-        <v>10.3764</v>
+        <v>112690.4483</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>93846.4528</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.7323</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4158.7812</v>
       </c>
-      <c r="O12" s="1">
-        <v>7556.1072</v>
-      </c>
-      <c r="P12" s="1">
-        <v>123224.4539</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0592</v>
+        <v>0.0646</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>12.3095</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>10000.4623</v>
       </c>
       <c r="F13" s="1">
         <v>356.3214</v>
       </c>
       <c r="G13" s="1">
-        <v>10356.7837</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>122461.6607</v>
       </c>
       <c r="I13" s="1">
-        <v>108154.504</v>
+        <v>7000.497</v>
       </c>
       <c r="J13" s="1">
-        <v>10.4429</v>
+        <v>129462.1577</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>98232.59110000001</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.822800000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4386.1384</v>
       </c>
-      <c r="O13" s="1">
-        <v>13169.9688</v>
-      </c>
-      <c r="P13" s="1">
-        <v>139994.9989</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0508</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>13.3876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10356.7837</v>
       </c>
       <c r="F14" s="1">
         <v>-10356.7837</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>137933.7163</v>
       </c>
       <c r="I14" s="1">
-        <v>108154.504</v>
+        <v>12614.3586</v>
       </c>
       <c r="J14" s="1">
-        <v>10.4429</v>
+        <v>150548.0749</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>98232.59110000001</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.4849</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>137933.7163</v>
       </c>
-      <c r="O14" s="1">
-        <v>151103.6851</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151103.6851</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0074</v>
+        <v>0.0795</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>9.661099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1035.0788</v>
       </c>
       <c r="G2" s="1">
-        <v>1035.0788</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.039000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>9.661099999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.039000000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>10.7352</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>1035.0788</v>
       </c>
       <c r="F3" s="1">
         <v>851.7136</v>
       </c>
       <c r="G3" s="1">
-        <v>1886.7925</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>11054.1243</v>
       </c>
       <c r="I3" s="1">
-        <v>19143.3162</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10.146</v>
+        <v>11054.1243</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9143.316199999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>8.833399999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9143.316199999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>856.6838</v>
-      </c>
-      <c r="P3" s="1">
-        <v>21006.6838</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0531</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>10.2783</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1886.7925</v>
       </c>
       <c r="F4" s="1">
         <v>1056.2723</v>
       </c>
       <c r="G4" s="1">
-        <v>2943.0648</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30092.8373</v>
+        <v>19292.4528</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>856.6838</v>
       </c>
       <c r="J4" s="1">
-        <v>10.1935</v>
+        <v>20149.1367</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10856.6838</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30092.8373</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0295</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>9.807499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2943.0648</v>
       </c>
       <c r="F5" s="1">
         <v>1019.6278</v>
       </c>
       <c r="G5" s="1">
-        <v>3962.6926</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38662.4067</v>
+        <v>28714.3058</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>10.0941</v>
+        <v>28714.3058</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10.1935</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.5</v>
       </c>
-      <c r="L5" s="1">
-        <v>1324.3791</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-8675.6209</v>
+        <v>849.0566</v>
       </c>
       <c r="O5" s="1">
-        <v>1324.3791</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39986.7859</v>
+        <v>-9150.9434</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0026</v>
+        <v>-0.0476</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>10.4459</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>3962.6926</v>
       </c>
       <c r="F6" s="1">
         <v>995.3671000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>4958.0597</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>41179.1128</v>
       </c>
       <c r="I6" s="1">
-        <v>50397.5053</v>
+        <v>849.0566</v>
       </c>
       <c r="J6" s="1">
-        <v>10.1648</v>
+        <v>42028.1694</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40397.5053</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>10.1945</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10397.5053</v>
       </c>
-      <c r="O6" s="1">
-        <v>926.8738</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52449.5431</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0493</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>9.6988</v>
       </c>
       <c r="E7" s="1">
+        <v>4958.0597</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1077.6128</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>1126.6212</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6084.6809</v>
-      </c>
       <c r="H7" s="1">
-        <v>58707.4356</v>
+        <v>47837.3435</v>
       </c>
       <c r="I7" s="1">
-        <v>61324.3791</v>
+        <v>451.5513</v>
       </c>
       <c r="J7" s="1">
-        <v>10.0785</v>
+        <v>48288.8947</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50849.0566</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>10.2558</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10926.8738</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>58707.4356</v>
+        <v>-10451.5513</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0599</v>
+        <v>-0.07190000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>10.0658</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>6035.6726</v>
       </c>
       <c r="F8" s="1">
         <v>993.463</v>
       </c>
       <c r="G8" s="1">
-        <v>7078.144</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>70876.9945</v>
+        <v>60438.2071</v>
       </c>
       <c r="I8" s="1">
-        <v>71324.37910000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>10.0767</v>
+        <v>60438.2071</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60849.0566</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>10.0816</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70876.9945</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0316</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>11.2848</v>
       </c>
       <c r="E9" s="1">
+        <v>7029.1356</v>
+      </c>
+      <c r="F9" s="1">
+        <v>482.546</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>433.5376</v>
-      </c>
-      <c r="G9" s="1">
-        <v>7511.6816</v>
-      </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>78911.18459999999</v>
       </c>
       <c r="I9" s="1">
-        <v>76216.7647</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10.1464</v>
+        <v>78911.18459999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66294.492</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>9.4314</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-4892.3856</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>5107.6144</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>89436.0055</v>
+        <v>-5445.4354</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.1058</v>
+        <v>0.1203</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>11.1341</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>7511.6816</v>
       </c>
       <c r="F10" s="1">
         <v>1118.6782</v>
       </c>
       <c r="G10" s="1">
-        <v>8630.3598</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>83202.39</v>
       </c>
       <c r="I10" s="1">
-        <v>88672.23940000001</v>
+        <v>4554.5646</v>
       </c>
       <c r="J10" s="1">
-        <v>10.2745</v>
+        <v>87756.9546</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78749.9667</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>10.4837</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12455.4747</v>
       </c>
-      <c r="O10" s="1">
-        <v>2652.1398</v>
-      </c>
-      <c r="P10" s="1">
-        <v>98245.4567</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>10.9064</v>
       </c>
       <c r="E11" s="1">
+        <v>8630.3598</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1109.3569</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>1160.0656</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9790.4254</v>
-      </c>
       <c r="H11" s="1">
-        <v>106224.1575</v>
+        <v>93637.6774</v>
       </c>
       <c r="I11" s="1">
-        <v>101324.3791</v>
+        <v>2099.0899</v>
       </c>
       <c r="J11" s="1">
-        <v>10.3493</v>
+        <v>95736.76730000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90849.0566</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>10.5267</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12652.1398</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>106224.1575</v>
+        <v>-12099.0899</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0187</v>
+        <v>-0.0207</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>11.6267</v>
       </c>
       <c r="E12" s="1">
+        <v>9739.716700000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>517.0314</v>
+      </c>
+      <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
-      <c r="F12" s="1">
-        <v>466.3227</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10256.748</v>
-      </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>112652.4847</v>
       </c>
       <c r="I12" s="1">
-        <v>106746.1727</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>10.4074</v>
+        <v>112652.4847</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96860.4255</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>9.944900000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-5421.7936</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>4578.2064</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>123210.8314</v>
+        <v>-6011.3689</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0601</v>
+        <v>0.0654</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>12.3095</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>10256.748</v>
       </c>
       <c r="F13" s="1">
         <v>392.964</v>
       </c>
       <c r="G13" s="1">
-        <v>10649.7121</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>125600.0339</v>
       </c>
       <c r="I13" s="1">
-        <v>111583.3635</v>
+        <v>3988.6311</v>
       </c>
       <c r="J13" s="1">
-        <v>10.4776</v>
+        <v>129588.665</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>101697.6164</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>9.9152</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-4837.1908</v>
       </c>
-      <c r="O13" s="1">
-        <v>9741.015600000001</v>
-      </c>
-      <c r="P13" s="1">
-        <v>140153.1299</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0521</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>13.3876</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>10649.7121</v>
       </c>
       <c r="F14" s="1">
         <v>-10649.7121</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>141834.9955</v>
       </c>
       <c r="I14" s="1">
-        <v>111583.3635</v>
+        <v>9151.440199999999</v>
       </c>
       <c r="J14" s="1">
-        <v>10.4776</v>
+        <v>150986.4357</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>101697.6164</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>9.549300000000001</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>141834.9955</v>
       </c>
-      <c r="O14" s="1">
-        <v>151576.0111</v>
-      </c>
-      <c r="P14" s="1">
-        <v>151576.0111</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0.0095</v>
+        <v>0.08169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.3515</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.6086</v>
+        <v>9.7302</v>
       </c>
       <c r="D3" s="1">
-        <v>10.3933</v>
+        <v>9.374599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>10.4127</v>
+        <v>9.4278</v>
       </c>
       <c r="F3" s="1">
-        <v>10.4429</v>
+        <v>9.4849</v>
       </c>
       <c r="G3" s="1">
-        <v>10.4776</v>
+        <v>9.549300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3539</v>
       </c>
       <c r="C4" s="3">
-        <v>0.2419</v>
+        <v>0.36</v>
       </c>
       <c r="D4" s="3">
-        <v>0.2281</v>
+        <v>0.3456</v>
       </c>
       <c r="E4" s="3">
-        <v>0.2326</v>
+        <v>0.3494</v>
       </c>
       <c r="F4" s="3">
-        <v>0.2358</v>
+        <v>0.3529</v>
       </c>
       <c r="G4" s="3">
-        <v>0.2388</v>
+        <v>0.3557</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2176</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1545</v>
+        <v>0.2205</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1521</v>
+        <v>0.214</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1536</v>
+        <v>0.2158</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1544</v>
+        <v>0.2171</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1551</v>
+        <v>0.2185</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5326</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4342</v>
+        <v>1.5402</v>
       </c>
       <c r="D6" s="4">
-        <v>1.3663</v>
+        <v>1.5202</v>
       </c>
       <c r="E6" s="4">
-        <v>1.3816</v>
+        <v>1.5254</v>
       </c>
       <c r="F6" s="4">
-        <v>1.3956</v>
+        <v>1.5317</v>
       </c>
       <c r="G6" s="4">
-        <v>1.408</v>
+        <v>1.5349</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.5362</v>
+        <v>0.3372</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5339</v>
+        <v>0.5216</v>
       </c>
       <c r="E7" s="3">
-        <v>0.5359</v>
+        <v>0.5228</v>
       </c>
       <c r="F7" s="3">
-        <v>0.5363</v>
+        <v>0.5235</v>
       </c>
       <c r="G7" s="3">
-        <v>0.5363</v>
+        <v>0.5233</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1322.7828</v>
+        <v>884.9672</v>
       </c>
       <c r="D8" s="1">
-        <v>1320.2934</v>
+        <v>842.7361</v>
       </c>
       <c r="E8" s="1">
-        <v>1326.9059</v>
+        <v>844.8429</v>
       </c>
       <c r="F8" s="1">
-        <v>1324.4728</v>
+        <v>846.9498</v>
       </c>
       <c r="G8" s="1">
-        <v>1324.3791</v>
+        <v>849.0566</v>
       </c>
     </row>
   </sheetData>
